--- a/biology/Histoire de la zoologie et de la botanique/J.Sm/J.Sm..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/J.Sm/J.Sm..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Smith est un botaniste et horticulteur britannique, né en 1798 et décédé en 1888
 De 1818 à 1822, il travaille au jardin botanique royal d'Édimbourg. Il entre, en 1822, au jardin botanique royal de Kew comme cuisinier et en devient curateur de 1841 à 1864. Durant cette période, l'ayant trouvé presque à l'état d'abandon, il le rétablit et l'enrichit. Par ailleurs, c'est lui, dès sa nomination au poste de curateur, qui assure le logis et un salaire à William Jackson Hooker, un des plus brillants directeur de Kew.
@@ -513,7 +525,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Catalogue of Ferns in the Royal Gardens at Kew. Londres : H.M.S.O., 1856.
 Cultivated Ferns: Or a Catalogue of Exotic and indigenous Ferns Cultivated in British Gardens, with Characters of General Principal, Synonyms, etc. - Londres : William Pamplin, 1857.
